--- a/SOFTWARE_ENGINEERING_PROJECT/PROJECT_DOCUMENTATION/SRS_FINAL.xlsx
+++ b/SOFTWARE_ENGINEERING_PROJECT/PROJECT_DOCUMENTATION/SRS_FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>SRS Requirement ID</t>
   </si>
@@ -107,13 +107,37 @@
   </si>
   <si>
     <t>Seif eldin ahmed</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +169,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,30 +205,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -253,11 +285,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,31 +430,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,7 +801,7 @@
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:14" ht="21">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -642,8 +816,10 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -651,7 +827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -659,133 +835,166 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="54" customHeight="1">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:14" ht="54" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="45">
+    <row r="7" spans="1:14" ht="45">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:14" ht="30">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:14" ht="30">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:14" ht="30">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="74.25" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="74.25" customHeight="1">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:2" ht="74.25" customHeight="1" thickBot="1">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:2">
+      <c r="A22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A25" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
